--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/YearlyHouseLoanInt.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/YearlyHouseLoanInt.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51566579-57E5-4E43-9EFC-57975B8805EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29747DED-E9B1-4FF1-B62F-BFB89CFF2341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="SP" sheetId="3" r:id="rId3"/>
+    <sheet name="JsonField" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -330,6 +331,16 @@
 7:定存特約
 8:劃撥存款</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>bdlocation</t>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -579,7 +590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +722,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1072,7 +1089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1088,10 +1105,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="45"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="3" t="s">
         <v>46</v>
       </c>
@@ -1103,8 +1120,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1116,10 +1133,10 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="47"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="11" t="s">
         <v>63</v>
       </c>
@@ -1131,20 +1148,20 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="46"/>
+      <c r="B4" s="48"/>
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
@@ -1152,10 +1169,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
@@ -1163,10 +1180,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
@@ -1662,4 +1679,57 @@
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5602C9A7-B2E5-41B8-872A-8B4873F54873}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="45">
+        <v>1</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/YearlyHouseLoanInt.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/YearlyHouseLoanInt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29747DED-E9B1-4FF1-B62F-BFB89CFF2341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCDF828-54C6-4568-9684-C9113E22378B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1476" yWindow="396" windowWidth="21252" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -336,10 +336,35 @@
     <t>DECIMAL</t>
   </si>
   <si>
-    <t>bdlocation</t>
-  </si>
-  <si>
     <t>地址</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BdLocation</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartMonth</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndMonth</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>繳息所屬年月-起月</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>繳息所屬年月-迄月</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國年月yyymm</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +765,9 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1089,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1686,41 +1714,67 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="45">
         <v>1</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>83</v>
-      </c>
       <c r="D1" s="45" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E1" s="45"/>
       <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="A2" s="45">
+        <v>2</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>88</v>
+      </c>
       <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="45">
+        <v>3</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>88</v>
+      </c>
       <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/YearlyHouseLoanInt.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/YearlyHouseLoanInt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCDF828-54C6-4568-9684-C9113E22378B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25535D2-8C49-4474-BFA4-61712FC89F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1476" yWindow="396" windowWidth="21252" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="89">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -133,10 +133,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -153,9 +149,6 @@
   </si>
   <si>
     <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
@@ -366,6 +359,9 @@
   <si>
     <t>NVARCHAR2</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -615,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,10 +624,10 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -644,9 +640,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -658,13 +651,10 @@
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -676,15 +666,6 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -733,26 +714,17 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -765,9 +737,6 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -795,9 +764,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -835,9 +804,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -870,26 +839,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -922,26 +874,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1117,108 +1052,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="15" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="23" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="6" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" style="18" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5546875" style="13" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="40"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="11"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1237,350 +1172,349 @@
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="20" customFormat="1" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+    <row r="9" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="B9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="19">
         <v>6</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="13">
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="19">
         <v>7</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="16"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="13">
         <v>3</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="19">
         <v>3</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" s="20" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <v>4</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="26">
+        <v>2</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="24" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="19">
+        <v>3</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="24" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>6</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="26">
+        <v>2</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="20" customFormat="1" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>7</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="26">
+        <v>16</v>
+      </c>
+      <c r="F15" s="26">
+        <v>2</v>
+      </c>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="26">
+        <v>16</v>
+      </c>
+      <c r="F16" s="26">
+        <v>2</v>
+      </c>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="1:7" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="26">
+        <v>8</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="26">
+        <v>8</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:7" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="26">
+        <v>16</v>
+      </c>
+      <c r="F19" s="26">
+        <v>2</v>
+      </c>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="26">
+        <v>8</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>13</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="13">
+        <v>300</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>14</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>15</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="23">
+        <v>6</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <v>16</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="31">
-        <v>2</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="29" customFormat="1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <v>5</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="24">
-        <v>3</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="29" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="C24" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
+        <v>17</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="23">
         <v>6</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="31">
-        <v>2</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="25" customFormat="1" ht="20.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
-        <v>7</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="31">
-        <v>16</v>
-      </c>
-      <c r="F15" s="31">
-        <v>2</v>
-      </c>
-      <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="1:7" s="25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
-        <v>8</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="31">
-        <v>16</v>
-      </c>
-      <c r="F16" s="31">
-        <v>2</v>
-      </c>
-      <c r="G16" s="36"/>
-    </row>
-    <row r="17" spans="1:7" s="25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
-        <v>9</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="31">
-        <v>8</v>
-      </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="36"/>
-    </row>
-    <row r="18" spans="1:7" s="25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
-        <v>10</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="31">
-        <v>8</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:7" s="25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
-        <v>11</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="31">
-        <v>16</v>
-      </c>
-      <c r="F19" s="31">
-        <v>2</v>
-      </c>
-      <c r="G19" s="36"/>
-    </row>
-    <row r="20" spans="1:7" s="25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
-        <v>12</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="31">
-        <v>8</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="1:7" s="25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
-        <v>13</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="42">
-        <v>300</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <v>14</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
-        <v>15</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="28">
-        <v>6</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
-        <v>16</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="42">
-        <v>17</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="28">
-        <v>6</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="21"/>
+      <c r="F25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1628,46 +1562,46 @@
     </row>
     <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1692,15 +1626,15 @@
     <col min="3" max="3" width="53.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1713,7 +1647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5602C9A7-B2E5-41B8-872A-8B4873F54873}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1726,61 +1660,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="45">
+      <c r="A1" s="24">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>2</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
+        <v>3</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="45">
-        <v>2</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="44" t="s">
+      <c r="C3" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="45"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="45">
-        <v>3</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="A4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
